--- a/inscriptions/inscriptions_test.xlsx
+++ b/inscriptions/inscriptions_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e6f95342fe37f2b/Bureau/timer-1/inscriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_AD4DB114E441178AC67DF4E92E95F54A683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F15269B-C81F-4718-A067-6D709BC86479}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="11_AD4DB114E441178AC67DF4E92E95F54A683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A28E0CDC-AADB-4946-B642-BB29495A39FB}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,10 +144,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -163,13 +163,17 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE018AC4-39AA-47F9-8926-7555DD90233F}" name="Tableau1" displayName="Tableau1" ref="A1:E6" totalsRowShown="0" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE018AC4-39AA-47F9-8926-7555DD90233F}" name="Tableau1" displayName="Tableau1" ref="A1:E6" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E6" xr:uid="{EE018AC4-39AA-47F9-8926-7555DD90233F}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CF3A1746-9EAB-4018-93E4-A53C55C824EA}" name="DOSSARD" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{88F1B86A-4129-47A4-939A-B8683FA6684E}" name="NOM" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{795579FE-22EB-4E67-9955-27583D7D6132}" name="PRENOM" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{CF3A1746-9EAB-4018-93E4-A53C55C824EA}" name="DOSSARD" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{88F1B86A-4129-47A4-939A-B8683FA6684E}" name="NOM" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{795579FE-22EB-4E67-9955-27583D7D6132}" name="PRENOM" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{02745559-58E7-4C1E-9009-72E7A9347513}" name="SEXE" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{A6E92956-6E3E-424B-9508-B4E7FC395CC7}" name="ANNEE_NAISSANCE" dataDxfId="0"/>
   </tableColumns>
@@ -443,7 +447,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -501,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>1991</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
